--- a/Jogos_do_Dia/2023-04-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="G2" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.35</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="V2" t="n">
         <v>1.5</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -1072,43 +1072,43 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="N6" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
         <v>1.09</v>
@@ -1135,28 +1135,28 @@
         <v>1.19</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.25</v>
+        <v>5.65</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF6" t="n">
         <v>1.91</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="7">
@@ -1182,46 +1182,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="H7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N7" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T7" t="n">
         <v>1.05</v>
@@ -1245,28 +1245,28 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="AB7" t="n">
         <v>18</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>9.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="8">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1313,10 +1313,10 @@
         <v>2.95</v>
       </c>
       <c r="M8" t="n">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="N8" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H9" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="I9" t="n">
         <v>1.07</v>
@@ -1423,10 +1423,10 @@
         <v>3.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="N9" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -1486,7 +1486,7 @@
         <v>2.63</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.35</v>
+        <v>2.85</v>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="I10" t="n">
         <v>1.11</v>
@@ -1533,10 +1533,10 @@
         <v>2.4</v>
       </c>
       <c r="M10" t="n">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="N10" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="O10" t="n">
         <v>1.56</v>
@@ -1584,7 +1584,7 @@
         <v>2.18</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE10" t="n">
         <v>1.56</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="I11" t="n">
         <v>1.07</v>
@@ -1643,10 +1643,10 @@
         <v>3.1</v>
       </c>
       <c r="M11" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.43</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE11" t="n">
         <v>1.62</v>
@@ -1706,7 +1706,7 @@
         <v>2.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
         <v>1.1</v>
@@ -1753,10 +1753,10 @@
         <v>2.75</v>
       </c>
       <c r="M12" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -1795,13 +1795,13 @@
         <v>2.96</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AD12" t="n">
         <v>1.44</v>
@@ -1813,10 +1813,10 @@
         <v>2.2</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="13">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.78</v>
+        <v>2.95</v>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="I13" t="n">
         <v>1.04</v>
@@ -1863,7 +1863,7 @@
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="N13" t="n">
         <v>1.7</v>
@@ -1905,13 +1905,13 @@
         <v>2.54</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AD13" t="n">
         <v>1.4</v>
@@ -1926,7 +1926,7 @@
         <v>2.63</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="14">
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="G14" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="I14" t="n">
         <v>1.06</v>
@@ -1973,10 +1973,10 @@
         <v>3.05</v>
       </c>
       <c r="M14" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="N14" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2024,7 +2024,7 @@
         <v>2.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE14" t="n">
         <v>1.54</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H15" t="n">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="I15" t="n">
         <v>1.08</v>
@@ -2083,10 +2083,10 @@
         <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O15" t="n">
         <v>1.45</v>
@@ -2125,16 +2125,16 @@
         <v>3.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE15" t="n">
         <v>1.57</v>
@@ -2146,7 +2146,7 @@
         <v>2.4</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="16">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
         <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
         <v>1.05</v>
@@ -2193,10 +2193,10 @@
         <v>2.71</v>
       </c>
       <c r="M16" t="n">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="N16" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="O16" t="n">
         <v>1.52</v>
@@ -2244,7 +2244,7 @@
         <v>2.93</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE16" t="n">
         <v>1.5</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H17" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="I17" t="n">
         <v>1.06</v>
@@ -2303,10 +2303,10 @@
         <v>3.4</v>
       </c>
       <c r="M17" t="n">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="N17" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="O17" t="n">
         <v>1.4</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE17" t="n">
         <v>1.55</v>
@@ -2366,7 +2366,7 @@
         <v>2.3</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="18">
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="I18" t="n">
         <v>1.08</v>
@@ -2413,10 +2413,10 @@
         <v>2.75</v>
       </c>
       <c r="M18" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="N18" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -2455,16 +2455,16 @@
         <v>2.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE18" t="n">
         <v>1.62</v>
@@ -2476,7 +2476,7 @@
         <v>2.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="19">
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
         <v>1.08</v>
@@ -2523,10 +2523,10 @@
         <v>2.75</v>
       </c>
       <c r="M19" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="N19" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -2565,13 +2565,13 @@
         <v>3.63</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AD19" t="n">
         <v>1.4</v>
@@ -2586,7 +2586,7 @@
         <v>2.63</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>13</v>
+        <v>18.28</v>
       </c>
       <c r="G20" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="I20" t="n">
         <v>1.02</v>
@@ -2722,43 +2722,43 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="M21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="G22" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H22" t="n">
-        <v>3.15</v>
+        <v>3.42</v>
       </c>
       <c r="I22" t="n">
         <v>1.04</v>
@@ -2853,10 +2853,10 @@
         <v>3.35</v>
       </c>
       <c r="M22" t="n">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="N22" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="O22" t="n">
         <v>1.38</v>
@@ -2904,19 +2904,19 @@
         <v>2.45</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF22" t="n">
         <v>1.94</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="23">
@@ -2942,52 +2942,52 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
         <v>1.25</v>
       </c>
-      <c r="G23" t="n">
-        <v>5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>11</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="N23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="Q23" t="n">
         <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S23" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="T23" t="n">
         <v>1.12</v>
       </c>
       <c r="U23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="V23" t="n">
         <v>1.43</v>
@@ -3052,52 +3052,52 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>6.85</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V24" t="n">
         <v>1.79</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -3183,10 +3183,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3272,52 +3272,52 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="V26" t="n">
         <v>1</v>
@@ -3382,52 +3382,52 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V27" t="n">
         <v>2</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3507,37 +3507,37 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V28" t="n">
         <v>1.86</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
         <v>1.01</v>
@@ -3623,10 +3623,10 @@
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="N29" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="O29" t="n">
         <v>1.35</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3733,10 +3733,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4.27</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3843,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -4167,16 +4167,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -4262,10 +4262,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G35" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
         <v>3.75</v>
@@ -4283,7 +4283,7 @@
         <v>3.3</v>
       </c>
       <c r="M35" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="N35" t="n">
         <v>1.83</v>
@@ -4295,10 +4295,10 @@
         <v>2.67</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R35" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S35" t="n">
         <v>1.2</v>
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="G36" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="I36" t="n">
         <v>1.02</v>
@@ -4393,10 +4393,10 @@
         <v>2.7</v>
       </c>
       <c r="M36" t="n">
-        <v>2.28</v>
+        <v>2.19</v>
       </c>
       <c r="N36" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O36" t="n">
         <v>1.4</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -4497,16 +4497,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="G38" t="n">
         <v>4.15</v>
       </c>
       <c r="H38" t="n">
-        <v>5.6</v>
+        <v>5.75</v>
       </c>
       <c r="I38" t="n">
         <v>1.02</v>
@@ -4613,10 +4613,10 @@
         <v>4.22</v>
       </c>
       <c r="M38" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="N38" t="n">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="O38" t="n">
         <v>1.3</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5.6</v>
+        <v>5.04</v>
       </c>
       <c r="G39" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="H39" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="I39" t="n">
         <v>1.08</v>
@@ -4723,10 +4723,10 @@
         <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="N39" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O39" t="n">
         <v>1.4</v>
@@ -4812,52 +4812,52 @@
         </is>
       </c>
       <c r="F40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H40" t="n">
         <v>2.75</v>
       </c>
-      <c r="G40" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J40" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="L40" t="n">
         <v>2.45</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V40" t="n">
         <v>1.25</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="G41" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="H41" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="N41" t="n">
         <v>1.5</v>
@@ -4976,13 +4976,13 @@
         <v>1.07</v>
       </c>
       <c r="X41" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Y41" t="n">
         <v>1.15</v>
       </c>
       <c r="Z41" t="n">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5.2</v>
+        <v>4.68</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H42" t="n">
         <v>1.6</v>
@@ -5053,22 +5053,22 @@
         <v>3.9</v>
       </c>
       <c r="M42" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="N42" t="n">
-        <v>2.05</v>
+        <v>2.28</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Q42" t="n">
         <v>1.73</v>
       </c>
       <c r="R42" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
         <v>2.25</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G43" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="I43" t="n">
         <v>1.04</v>
@@ -5163,10 +5163,10 @@
         <v>3.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="O43" t="n">
         <v>1.35</v>
@@ -5190,43 +5190,43 @@
         <v>1.85</v>
       </c>
       <c r="V43" t="n">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="W43" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="X43" t="n">
         <v>1.49</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="44">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
-        <v>3.45</v>
+        <v>3.54</v>
       </c>
       <c r="I44" t="n">
         <v>1.07</v>
@@ -5273,10 +5273,10 @@
         <v>2.86</v>
       </c>
       <c r="M44" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="N44" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="O44" t="n">
         <v>1.5</v>
@@ -5315,28 +5315,28 @@
         <v>3.26</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -5362,52 +5362,52 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
         <v>0.88</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="H47" t="n">
-        <v>3.93</v>
+        <v>3.6</v>
       </c>
       <c r="I47" t="n">
         <v>1.04</v>
@@ -5603,10 +5603,10 @@
         <v>3.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="N47" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="O47" t="n">
         <v>1.4</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="n">
         <v>3.3</v>
       </c>
-      <c r="G48" t="n">
-        <v>3.7</v>
-      </c>
       <c r="H48" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="I48" t="n">
         <v>1.07</v>
@@ -5713,10 +5713,10 @@
         <v>3.15</v>
       </c>
       <c r="M48" t="n">
-        <v>2.16</v>
+        <v>2.07</v>
       </c>
       <c r="N48" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="O48" t="n">
         <v>1.44</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.33</v>
+        <v>5.07</v>
       </c>
       <c r="G49" t="n">
         <v>3.2</v>
       </c>
       <c r="H49" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="I49" t="n">
         <v>1.04</v>
@@ -5823,10 +5823,10 @@
         <v>2.84</v>
       </c>
       <c r="M49" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="N49" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="O49" t="n">
         <v>1.46</v>
@@ -5865,28 +5865,28 @@
         <v>2.8</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="50">
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4.2</v>
+        <v>4.17</v>
       </c>
       <c r="G50" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="H50" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="I50" t="n">
         <v>1.08</v>
@@ -5927,16 +5927,16 @@
         <v>6.5</v>
       </c>
       <c r="K50" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="L50" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="M50" t="n">
-        <v>2.3</v>
+        <v>2.41</v>
       </c>
       <c r="N50" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O50" t="n">
         <v>1.47</v>
@@ -5975,25 +5975,25 @@
         <v>2.83</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AH50" t="n">
         <v>0</v>
@@ -6002,143 +6002,143 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Brazil Copa do Brasil</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
         <v>45028.6875</v>
       </c>
       <c r="C51" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>América Mineiro</t>
         </is>
       </c>
       <c r="F51" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3</v>
+      </c>
+      <c r="W51" t="n">
+        <v>2</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH51" t="n">
         <v>2.75</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="J51" t="n">
-        <v>6</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M51" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P51" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V51" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X51" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>3.85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Brazil Copa do Brasil</t>
+          <t>Ecuador Primera Categoría Serie B</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45028.6875</v>
+        <v>45028.70833333334</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Guayaquil</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>América Mineiro</t>
+          <t>Cuniburo</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -6153,10 +6153,10 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -6165,10 +6165,10 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
@@ -6180,28 +6180,28 @@
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="W52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X52" t="n">
-        <v>2.52</v>
+        <v>1.29</v>
       </c>
       <c r="Y52" t="n">
-        <v>3</v>
+        <v>0.79</v>
       </c>
       <c r="Z52" t="n">
-        <v>5.52</v>
+        <v>2.08</v>
       </c>
       <c r="AA52" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="n">
         <v>0</v>
@@ -6222,661 +6222,661 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ecuador Primera Categoría Serie B</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45028.70833333334</v>
+        <v>45028.72916666666</v>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Guayaquil</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cuniburo</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="W53" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X53" t="n">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.79</v>
+        <v>1.32</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.08</v>
+        <v>2.87</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Ecuador Primera Categoría Serie B</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45028.70833333334</v>
+        <v>45028.72916666666</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>América de Quito</t>
+          <t>Unión Magdalena</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Macará</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V54" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="W54" t="n">
-        <v>2</v>
+        <v>0.83</v>
       </c>
       <c r="X54" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="Z54" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45028.72916666666</v>
+        <v>45028.79166666666</v>
       </c>
       <c r="C55" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Unión Magdalena</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Huracán</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.48</v>
+        <v>2.75</v>
       </c>
       <c r="G55" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="I55" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="J55" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="K55" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="L55" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="M55" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="N55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O55" t="n">
         <v>1.57</v>
       </c>
-      <c r="O55" t="n">
-        <v>1.49</v>
-      </c>
       <c r="P55" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R55" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC55" t="n">
         <v>1.75</v>
       </c>
-      <c r="S55" t="n">
+      <c r="AD55" t="n">
         <v>1.33</v>
       </c>
-      <c r="T55" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U55" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V55" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W55" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="X55" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
         <v>45028.79166666666</v>
       </c>
       <c r="C56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Sportivo Luqueño</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Huracán</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.75</v>
+        <v>4.1</v>
       </c>
       <c r="G56" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H56" t="n">
-        <v>2.5</v>
+        <v>1.76</v>
       </c>
       <c r="I56" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>2.45</v>
+        <v>1.62</v>
       </c>
       <c r="N56" t="n">
-        <v>1.5</v>
+        <v>2.03</v>
       </c>
       <c r="O56" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="W56" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X56" t="n">
-        <v>1.09</v>
+        <v>1.46</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="Z56" t="n">
-        <v>2.32</v>
+        <v>2.78</v>
       </c>
       <c r="AA56" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="AB56" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AE56" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AF56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG56" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AH56" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Brazil Copa do Brasil</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
         <v>45028.79166666666</v>
       </c>
       <c r="C57" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Newell's Old Boys</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.8</v>
+        <v>2.22</v>
       </c>
       <c r="G57" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H57" t="n">
-        <v>4.25</v>
+        <v>2.88</v>
       </c>
       <c r="I57" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J57" t="n">
-        <v>9</v>
+        <v>7.25</v>
       </c>
       <c r="K57" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="L57" t="n">
-        <v>2.93</v>
+        <v>2.7</v>
       </c>
       <c r="M57" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="N57" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O57" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P57" t="n">
         <v>2.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R57" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S57" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="T57" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="U57" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AG57" t="n">
         <v>1.85</v>
       </c>
-      <c r="V57" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W57" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X57" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>2.45</v>
-      </c>
       <c r="AH57" t="n">
-        <v>3.4</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45028.79166666666</v>
+        <v>45028.8125</v>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sportivo Luqueño</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Newell's Old Boys</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="G58" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H58" t="n">
-        <v>1.76</v>
+        <v>4.25</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="M58" t="n">
-        <v>1.76</v>
+        <v>2.25</v>
       </c>
       <c r="N58" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V58" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W58" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Y58" t="n">
         <v>1.6</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AD58" t="n">
         <v>1.27</v>
       </c>
-      <c r="Y58" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
       <c r="AE58" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG58" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH58" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="59">
@@ -6886,107 +6886,107 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45028.79166666666</v>
+        <v>45028.8125</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Paysandu</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.18</v>
+        <v>1.12</v>
       </c>
       <c r="G59" t="n">
-        <v>3.15</v>
+        <v>6.5</v>
       </c>
       <c r="H59" t="n">
-        <v>3.05</v>
+        <v>14.64</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M59" t="n">
-        <v>2.13</v>
+        <v>1.7</v>
       </c>
       <c r="N59" t="n">
-        <v>1.59</v>
+        <v>1.98</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.93</v>
+        <v>2.75</v>
       </c>
       <c r="R59" t="n">
-        <v>1.77</v>
+        <v>1.4</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="V59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
         <v>0</v>
       </c>
       <c r="Z59" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AB59" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AC59" t="n">
-        <v>2.41</v>
+        <v>19</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
       </c>
       <c r="AE59" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF59" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG59" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH59" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="60">
@@ -7003,100 +7003,100 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Paysandu</t>
+          <t>Atlético PR</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.12</v>
+        <v>4</v>
       </c>
       <c r="G60" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J60" t="n">
         <v>7.5</v>
       </c>
-      <c r="H60" t="n">
-        <v>26</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M60" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="N60" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>3.24</v>
+        <v>2</v>
       </c>
       <c r="R60" t="n">
-        <v>1.32</v>
+        <v>1.75</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="Y60" t="n">
         <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AA60" t="n">
-        <v>1.06</v>
+        <v>2.32</v>
       </c>
       <c r="AB60" t="n">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC60" t="n">
-        <v>11</v>
+        <v>1.8</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
       </c>
       <c r="AE60" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF60" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AG60" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH60" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="61">
@@ -7106,202 +7106,202 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45028.8125</v>
+        <v>45028.83333333334</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Atlético PR</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4.2</v>
+        <v>1.12</v>
       </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H61" t="n">
-        <v>1.87</v>
+        <v>14.64</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="M61" t="n">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="N61" t="n">
-        <v>1.62</v>
+        <v>2.19</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q61" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="U61" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
         <v>2</v>
       </c>
-      <c r="R61" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0</v>
-      </c>
-      <c r="V61" t="n">
-        <v>3</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0</v>
-      </c>
       <c r="X61" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="Z61" t="n">
-        <v>2.42</v>
+        <v>1.16</v>
       </c>
       <c r="AA61" t="n">
-        <v>2.32</v>
+        <v>1.06</v>
       </c>
       <c r="AB61" t="n">
-        <v>9.199999999999999</v>
+        <v>17</v>
       </c>
       <c r="AC61" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AH61" t="n">
         <v>1.8</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Brazil Copa do Brasil</t>
+          <t>USA USL Championship</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45028.83333333334</v>
+        <v>45028.85416666666</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Tampa Bay Rowdies</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Charleston Battery</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.14</v>
+        <v>1.75</v>
       </c>
       <c r="G62" t="n">
-        <v>7.5</v>
+        <v>3.55</v>
       </c>
       <c r="H62" t="n">
-        <v>23</v>
+        <v>4.05</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M62" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="N62" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.9</v>
+        <v>1.73</v>
       </c>
       <c r="R62" t="n">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X62" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AB62" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC62" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -7322,33 +7322,33 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>USA USL Championship</t>
+          <t>Ecuador Primera Categoría Serie B</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45028.85416666666</v>
+        <v>45028.875</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tampa Bay Rowdies</t>
+          <t>América de Quito</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Charleston Battery</t>
+          <t>Macará</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>4.24</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -7363,10 +7363,10 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -7375,34 +7375,34 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1</v>
+      </c>
+      <c r="W63" t="n">
         <v>2</v>
       </c>
-      <c r="S63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" t="n">
-        <v>0</v>
-      </c>
-      <c r="V63" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W63" t="n">
-        <v>1</v>
-      </c>
       <c r="X63" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="Y63" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="AA63" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2023-04-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H2" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
         <v>1.09</v>
@@ -647,16 +647,16 @@
         <v>7.35</v>
       </c>
       <c r="K2" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="M2" t="n">
-        <v>2.59</v>
+        <v>2.47</v>
       </c>
       <c r="N2" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -668,7 +668,7 @@
         <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.35</v>
@@ -680,10 +680,10 @@
         <v>1.37</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="X2" t="n">
         <v>1.62</v>
@@ -790,10 +790,10 @@
         <v>1.4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
         <v>1.4</v>
@@ -900,10 +900,10 @@
         <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
         <v>1.78</v>
@@ -1010,10 +1010,10 @@
         <v>1.4</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
         <v>1.49</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>4.45</v>
       </c>
       <c r="H6" t="n">
-        <v>7.4</v>
+        <v>7.43</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="N6" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="O6" t="n">
         <v>1.38</v>
@@ -1120,7 +1120,7 @@
         <v>2.65</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
         <v>1</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="G7" t="n">
-        <v>7.6</v>
+        <v>7.53</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>19.77</v>
       </c>
       <c r="I7" t="n">
         <v>1.03</v>
@@ -1203,10 +1203,10 @@
         <v>4.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="N7" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="O7" t="n">
         <v>1.31</v>
@@ -1230,10 +1230,10 @@
         <v>5.5</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>5.05</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1313,10 +1313,10 @@
         <v>2.95</v>
       </c>
       <c r="M8" t="n">
-        <v>2.16</v>
+        <v>2.33</v>
       </c>
       <c r="N8" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1340,10 +1340,10 @@
         <v>1.81</v>
       </c>
       <c r="V8" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="X8" t="n">
         <v>1.98</v>
@@ -1376,7 +1376,7 @@
         <v>3.2</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="9">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="G9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>1.07</v>
@@ -1423,10 +1423,10 @@
         <v>3.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="N9" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.85</v>
+        <v>2.49</v>
       </c>
       <c r="G10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="I10" t="n">
         <v>1.11</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>3.06</v>
       </c>
       <c r="H11" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="I11" t="n">
         <v>1.07</v>
@@ -1685,13 +1685,13 @@
         <v>2.82</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AD11" t="n">
         <v>1.3</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.32</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>2.24</v>
       </c>
       <c r="I12" t="n">
         <v>1.1</v>
@@ -1753,10 +1753,10 @@
         <v>2.75</v>
       </c>
       <c r="M12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N12" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="G13" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>2.35</v>
+        <v>2.68</v>
       </c>
       <c r="I13" t="n">
         <v>1.04</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="H14" t="n">
-        <v>2.6</v>
+        <v>2.49</v>
       </c>
       <c r="I14" t="n">
         <v>1.06</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="G15" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
-        <v>2.6</v>
+        <v>1.97</v>
       </c>
       <c r="I15" t="n">
         <v>1.08</v>
@@ -2083,10 +2083,10 @@
         <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="N15" t="n">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="O15" t="n">
         <v>1.45</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
         <v>1.05</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.5</v>
+        <v>2.19</v>
       </c>
       <c r="G17" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
         <v>1.06</v>
@@ -2303,10 +2303,10 @@
         <v>3.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="N17" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="O17" t="n">
         <v>1.4</v>
@@ -2345,13 +2345,13 @@
         <v>2.95</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AD17" t="n">
         <v>1.26</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.8</v>
+        <v>2.93</v>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="I18" t="n">
         <v>1.08</v>
@@ -2407,10 +2407,10 @@
         <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L18" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M18" t="n">
         <v>2.18</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.24</v>
+        <v>1.91</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
         <v>1.08</v>
@@ -2523,10 +2523,10 @@
         <v>2.75</v>
       </c>
       <c r="M19" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="N19" t="n">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>18.28</v>
+        <v>13</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="H20" t="n">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="I20" t="n">
         <v>1.02</v>
@@ -2633,7 +2633,7 @@
         <v>4.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="N20" t="n">
         <v>2.4</v>
@@ -2675,28 +2675,28 @@
         <v>3</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="21">
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.59</v>
+        <v>3.13</v>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="I21" t="n">
         <v>1.01</v>
@@ -2743,10 +2743,10 @@
         <v>3.02</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="N21" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O21" t="n">
         <v>1.37</v>
@@ -2785,28 +2785,28 @@
         <v>2.54</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="22">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="G22" t="n">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="H22" t="n">
-        <v>3.42</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
         <v>1.04</v>
@@ -2853,10 +2853,10 @@
         <v>3.35</v>
       </c>
       <c r="M22" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="N22" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="O22" t="n">
         <v>1.38</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="G23" t="n">
-        <v>4.8</v>
+        <v>4.44</v>
       </c>
       <c r="H23" t="n">
-        <v>7.28</v>
+        <v>6.67</v>
       </c>
       <c r="I23" t="n">
         <v>1.04</v>
@@ -2963,10 +2963,10 @@
         <v>3.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="N23" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
@@ -3005,28 +3005,28 @@
         <v>2.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>4.98</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="G24" t="n">
-        <v>2.93</v>
+        <v>2.69</v>
       </c>
       <c r="H24" t="n">
-        <v>3.24</v>
+        <v>2.97</v>
       </c>
       <c r="I24" t="n">
         <v>1.1</v>
@@ -3162,52 +3162,52 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>3.16</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>7.05</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="M25" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="N25" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="V25" t="n">
         <v>2.36</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="G26" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H26" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="I26" t="n">
         <v>1.1</v>
@@ -3293,10 +3293,10 @@
         <v>2.09</v>
       </c>
       <c r="M26" t="n">
-        <v>2.89</v>
+        <v>2.32</v>
       </c>
       <c r="N26" t="n">
-        <v>1.34</v>
+        <v>1.54</v>
       </c>
       <c r="O26" t="n">
         <v>1.63</v>
@@ -3305,10 +3305,10 @@
         <v>2.14</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="n">
         <v>1.4</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="G27" t="n">
-        <v>3.25</v>
+        <v>2.87</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="I27" t="n">
         <v>1.04</v>
@@ -3403,10 +3403,10 @@
         <v>3.56</v>
       </c>
       <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
         <v>1.8</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1.86</v>
       </c>
       <c r="O27" t="n">
         <v>1.36</v>
@@ -3415,10 +3415,10 @@
         <v>2.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="S27" t="n">
         <v>1.19</v>
@@ -3492,19 +3492,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G28" t="n">
-        <v>3.6</v>
+        <v>3.52</v>
       </c>
       <c r="H28" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K28" t="n">
         <v>1.28</v>
@@ -3513,7 +3513,7 @@
         <v>3.3</v>
       </c>
       <c r="M28" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="N28" t="n">
         <v>1.81</v>
@@ -3525,10 +3525,10 @@
         <v>2.81</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R28" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S28" t="n">
         <v>1.15</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>4.42</v>
       </c>
       <c r="I29" t="n">
         <v>1.01</v>
@@ -3623,10 +3623,10 @@
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>2.03</v>
+        <v>2.13</v>
       </c>
       <c r="N29" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="O29" t="n">
         <v>1.35</v>
@@ -3665,28 +3665,28 @@
         <v>3.01</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="30">
@@ -3712,52 +3712,52 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="G30" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="H30" t="n">
-        <v>4.2</v>
+        <v>4.58</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="M30" t="n">
-        <v>2.19</v>
+        <v>1.96</v>
       </c>
       <c r="N30" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V30" t="n">
         <v>1.79</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="G31" t="n">
-        <v>4.27</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3837,16 +3837,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="M31" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="N31" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -4152,19 +4152,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>4.02</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="K34" t="n">
         <v>1.55</v>
@@ -4179,25 +4179,25 @@
         <v>1.4</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="V34" t="n">
         <v>1.86</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
       <c r="H35" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="I35" t="n">
         <v>1.02</v>
@@ -4283,10 +4283,10 @@
         <v>3.3</v>
       </c>
       <c r="M35" t="n">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="N35" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O35" t="n">
         <v>1.42</v>
@@ -4295,10 +4295,10 @@
         <v>2.67</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R35" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S35" t="n">
         <v>1.2</v>
@@ -4325,13 +4325,13 @@
         <v>2.89</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -4340,7 +4340,7 @@
         <v>1.29</v>
       </c>
       <c r="AF35" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AG35" t="n">
         <v>1.9</v>
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="H36" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="I36" t="n">
         <v>1.02</v>
@@ -4393,10 +4393,10 @@
         <v>2.7</v>
       </c>
       <c r="M36" t="n">
-        <v>2.19</v>
+        <v>2.28</v>
       </c>
       <c r="N36" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O36" t="n">
         <v>1.4</v>
@@ -4435,28 +4435,28 @@
         <v>2.53</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="37">
@@ -4482,19 +4482,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K37" t="n">
         <v>1.51</v>
@@ -4503,31 +4503,31 @@
         <v>2.4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="N37" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V37" t="n">
         <v>1.79</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="G38" t="n">
-        <v>4.15</v>
+        <v>4.38</v>
       </c>
       <c r="H38" t="n">
-        <v>5.75</v>
+        <v>6.35</v>
       </c>
       <c r="I38" t="n">
         <v>1.02</v>
@@ -4613,10 +4613,10 @@
         <v>4.22</v>
       </c>
       <c r="M38" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="N38" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="O38" t="n">
         <v>1.3</v>
@@ -4664,19 +4664,19 @@
         <v>4.1</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF38" t="n">
         <v>2.05</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="39">
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5.04</v>
+        <v>5.46</v>
       </c>
       <c r="G39" t="n">
-        <v>3.6</v>
+        <v>3.79</v>
       </c>
       <c r="H39" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="I39" t="n">
         <v>1.08</v>
@@ -4723,10 +4723,10 @@
         <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>2.16</v>
+        <v>2.03</v>
       </c>
       <c r="N39" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="O39" t="n">
         <v>1.4</v>
@@ -4765,28 +4765,28 @@
         <v>3.38</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="40">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.6</v>
+        <v>2.53</v>
       </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="H40" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="I40" t="n">
         <v>1.08</v>
@@ -4827,16 +4827,16 @@
         <v>7.05</v>
       </c>
       <c r="K40" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="L40" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="M40" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="N40" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="O40" t="n">
         <v>1.57</v>
@@ -4875,28 +4875,28 @@
         <v>2.2</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="41">
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="G41" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="H41" t="n">
-        <v>2.64</v>
+        <v>2.94</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -4943,10 +4943,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>2.41</v>
+        <v>2.5</v>
       </c>
       <c r="N41" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4.68</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H42" t="n">
         <v>1.6</v>
@@ -5053,10 +5053,10 @@
         <v>3.9</v>
       </c>
       <c r="M42" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="N42" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O42" t="n">
         <v>1.31</v>
@@ -5065,10 +5065,10 @@
         <v>3.2</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S42" t="n">
         <v>2.25</v>
@@ -5095,28 +5095,28 @@
         <v>3.02</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>4.48</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="43">
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.79</v>
+        <v>2.19</v>
       </c>
       <c r="G43" t="n">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="H43" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="I43" t="n">
         <v>1.04</v>
@@ -5163,10 +5163,10 @@
         <v>3.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="N43" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="O43" t="n">
         <v>1.35</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="G44" t="n">
         <v>3.2</v>
       </c>
       <c r="H44" t="n">
-        <v>3.54</v>
+        <v>3.48</v>
       </c>
       <c r="I44" t="n">
         <v>1.07</v>
@@ -5273,10 +5273,10 @@
         <v>2.86</v>
       </c>
       <c r="M44" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="N44" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O44" t="n">
         <v>1.5</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G45" t="n">
-        <v>3.75</v>
+        <v>3.97</v>
       </c>
       <c r="H45" t="n">
-        <v>3.8</v>
+        <v>3.57</v>
       </c>
       <c r="I45" t="n">
         <v>1.01</v>
@@ -5472,52 +5472,52 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="V46" t="n">
         <v>1.67</v>
@@ -5544,16 +5544,16 @@
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH46" t="n">
         <v>0</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G47" t="n">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="H47" t="n">
-        <v>3.6</v>
+        <v>3.92</v>
       </c>
       <c r="I47" t="n">
         <v>1.04</v>
@@ -5606,7 +5606,7 @@
         <v>2.04</v>
       </c>
       <c r="N47" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="O47" t="n">
         <v>1.4</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G48" t="n">
         <v>3.3</v>
       </c>
       <c r="H48" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="I48" t="n">
         <v>1.07</v>
@@ -5713,10 +5713,10 @@
         <v>3.15</v>
       </c>
       <c r="M48" t="n">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="N48" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O48" t="n">
         <v>1.44</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5.07</v>
+        <v>4.1</v>
       </c>
       <c r="G49" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="I49" t="n">
         <v>1.04</v>
@@ -5823,10 +5823,10 @@
         <v>2.84</v>
       </c>
       <c r="M49" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="N49" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="O49" t="n">
         <v>1.46</v>
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4.17</v>
+        <v>3.3</v>
       </c>
       <c r="G50" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="H50" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="I50" t="n">
         <v>1.08</v>
@@ -5930,13 +5930,13 @@
         <v>1.5</v>
       </c>
       <c r="L50" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="M50" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="N50" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="O50" t="n">
         <v>1.47</v>
@@ -6025,10 +6025,10 @@
         <v>3.95</v>
       </c>
       <c r="G51" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H51" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="I51" t="n">
         <v>1.06</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="N51" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="O51" t="n">
         <v>1.42</v>
@@ -6085,13 +6085,13 @@
         <v>5.52</v>
       </c>
       <c r="AA51" t="n">
-        <v>3.11</v>
+        <v>3.34</v>
       </c>
       <c r="AB51" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AC51" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AD51" t="n">
         <v>1.19</v>
@@ -6132,52 +6132,52 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>8.85</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="V52" t="n">
         <v>0.5</v>
@@ -6352,13 +6352,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.63</v>
+        <v>2.49</v>
       </c>
       <c r="G54" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="I54" t="n">
         <v>1.08</v>
@@ -6373,10 +6373,10 @@
         <v>2.62</v>
       </c>
       <c r="M54" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="N54" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="O54" t="n">
         <v>1.49</v>
@@ -6572,13 +6572,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4.1</v>
+        <v>3.78</v>
       </c>
       <c r="G56" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -6593,10 +6593,10 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="N56" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -6629,10 +6629,10 @@
         <v>1.46</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="Z56" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="AA56" t="n">
         <v>0</v>
@@ -6682,13 +6682,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G57" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H57" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I57" t="n">
         <v>1.08</v>
@@ -6745,13 +6745,13 @@
         <v>2.2</v>
       </c>
       <c r="AA57" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="AB57" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AC57" t="n">
-        <v>2.4</v>
+        <v>3.01</v>
       </c>
       <c r="AD57" t="n">
         <v>1.14</v>
@@ -6902,13 +6902,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="G59" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="H59" t="n">
-        <v>14.64</v>
+        <v>10.5</v>
       </c>
       <c r="I59" t="n">
         <v>1.04</v>
@@ -6935,10 +6935,10 @@
         <v>3</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R59" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S59" t="n">
         <v>1.01</v>
@@ -6965,16 +6965,16 @@
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB59" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AC59" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE59" t="n">
         <v>1.3</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="G60" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H60" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="I60" t="n">
         <v>1.07</v>
@@ -7075,16 +7075,16 @@
         <v>2.42</v>
       </c>
       <c r="AA60" t="n">
-        <v>2.32</v>
+        <v>2.67</v>
       </c>
       <c r="AB60" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC60" t="n">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="AD60" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE60" t="n">
         <v>1.29</v>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="G61" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H61" t="n">
-        <v>14.64</v>
+        <v>11.5</v>
       </c>
       <c r="I61" t="n">
         <v>1.01</v>
@@ -7143,10 +7143,10 @@
         <v>4.75</v>
       </c>
       <c r="M61" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="N61" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="O61" t="n">
         <v>1.29</v>
@@ -7191,13 +7191,13 @@
         <v>17</v>
       </c>
       <c r="AC61" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
       </c>
       <c r="AE61" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF61" t="n">
         <v>1.27</v>
@@ -7232,13 +7232,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G62" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H62" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="I62" t="n">
         <v>1.04</v>
@@ -7253,10 +7253,10 @@
         <v>3.6</v>
       </c>
       <c r="M62" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="N62" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="O62" t="n">
         <v>1.35</v>
@@ -7307,10 +7307,10 @@
         <v>0</v>
       </c>
       <c r="AE62" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AG62" t="n">
         <v>0</v>
@@ -7342,52 +7342,52 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="V63" t="n">
         <v>1</v>
